--- a/replication_package/1_Quality_Model_Snowballing.xlsx
+++ b/replication_package/1_Quality_Model_Snowballing.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/Req Quality Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{68A6B8F7-620A-4123-9E9F-CEF49EACEDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0399D4CB-826F-4054-BD65-3489070330F5}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{68A6B8F7-620A-4123-9E9F-CEF49EACEDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4F2052-E626-4775-8D43-BAEE27A20EDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DA611D9-12F5-44CC-8CC3-125313F44466}"/>
+    <workbookView xWindow="29385" yWindow="615" windowWidth="28800" windowHeight="15375" firstSheet="1" activeTab="5" xr2:uid="{3DA611D9-12F5-44CC-8CC3-125313F44466}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
     <sheet name="Inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="Exclusion" sheetId="3" r:id="rId3"/>
-    <sheet name="Backward Snowballing" sheetId="4" r:id="rId4"/>
-    <sheet name="Forward Snowballing" sheetId="5" r:id="rId5"/>
+    <sheet name="Startset" sheetId="6" r:id="rId4"/>
+    <sheet name="Backward Snowballing" sheetId="4" r:id="rId5"/>
+    <sheet name="Forward Snowballing" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="222">
   <si>
     <t>Short reference</t>
   </si>
@@ -173,9 +174,6 @@
   </si>
   <si>
     <t>10.1007/s11219-016-9336-4</t>
-  </si>
-  <si>
-    <t>Glinz, Martin, Hans van Loenhoud, Stefan Staal, and Stan Bühne</t>
   </si>
   <si>
     <t>[GLSB20]</t>
@@ -250,12 +248,515 @@
   <si>
     <t>Short references citing  the source</t>
   </si>
+  <si>
+    <t>Nistala, Padmalata V., Nori, Kesav V., Natarajan, Swaminathan</t>
+  </si>
+  <si>
+    <t>Process patterns for requirement consistency analysis</t>
+  </si>
+  <si>
+    <t>10.1145/3011784.3011809</t>
+  </si>
+  <si>
+    <t>In the requirement space, patterns are gaining prominence to capture the requirement knowledge for reuse and help identify requirements. The quality of requirement specification is critical for effective understanding and implementation of requirements. This paper presents a set of process patterns that use the concept of compositional traceability to analyze how well the requirement specifications or user stories have been formulated and to identify inconsistencies among its encompassing elements. We present two patterns that have been successfully applied and found useful to carry out consistency analysis on requirements and detect inconsistencies in requirements: Requirements coverage analysis and Requirements traceability analysis. These patterns can be applied to projects during requirements phase for review and analysis of stated requirements. The paper describes the patterns, discusses its implementation and results from a project case study.</t>
+  </si>
+  <si>
+    <t>[FMF15]</t>
+  </si>
+  <si>
+    <t>Glinz, Martin, Hans van Loenhoud, Stefan, Staal, and Stan Bühne</t>
+  </si>
+  <si>
+    <t>Femmer, Henning, Mund, Jabok,  Fernández, Daniel Méndez</t>
+  </si>
+  <si>
+    <t>It's the activities, stupid! a new perspective on RE quality</t>
+  </si>
+  <si>
+    <t>[Context] Requirements Engineering (RE) artifacts are central items in software development: Their quality is of essential importance for development, testing and other software engineering activities. However, as requirements artifacts are used differently in different processes, the proper definition of what is good quality depends on the context under consideration. [Problem] So far, no methodology exists that enables to define context-specific RE artifact quality in a precise manner. [Principle Idea] We define context-specific RE artifact quality by how quality attributes of an RE artifact impact on the activities of the software development process in which this artifact is used. [Contribution] In this paper, we introduce a methodology to define RE artifact quality specifically to a project- or process context. Furthermore, we provide a preliminary technical validation as well as an industrial validation on the application of our approach. Our studies indicate that the activity-based approach enables defining and validating RE quality in a precise and systematic manner. The industrial validation furthermore suggests the applicability of the approach in practical use.</t>
+  </si>
+  <si>
+    <t>[PVA18]</t>
+  </si>
+  <si>
+    <t>Parra, Eugenio, de la Vara, Jose Luis, Alonso, Luis</t>
+  </si>
+  <si>
+    <t>Analysis of requirements quality evolution</t>
+  </si>
+  <si>
+    <t>10.1145/3183440.3195095</t>
+  </si>
+  <si>
+    <t>A fundamental aspect in the requirements engineering process is to know the quality of a specification, including how the quality evolves over time. This paper introduces an industrial approach for analysis of requirements quality evolution. The approach has been implemented in the System Quality Analyzer tool, exploits quality metrics for requirements correctness, consistency, and completeness, and is based on the storage of quality information in snapshots that are combined and displayed in charts. This can help practitioners to assess the progress and status of a requirements engineering process and to make decisions.</t>
+  </si>
+  <si>
+    <t>[WM17]</t>
+  </si>
+  <si>
+    <t>Wnuk, Krzysztof, Maddila, Kalyan Chakravarthy</t>
+  </si>
+  <si>
+    <t>Agile and lean metrics associated with requirements engineering</t>
+  </si>
+  <si>
+    <t>10.1145/3143434.3143437</t>
+  </si>
+  <si>
+    <t>Despite the continuously increasing importance of Agile and Lean in software development, the number of studies that investigate Requirements Engineering (RE) related aspects remains low. In this paper, we report the results from a literature review about Agile and Lean requirements engineering. By performing a systematic mapping literature review, we identified 22 metrics in 18 publications. We analyzed the identified papers based on research methodology, rigor and relevance and other external attributes. We also map the identified metrics on the abstracted model for Agile and Lean development. We conclude that requirements-associated metrics are underrepresented in the literature and most of the metrics focuses on the time aspect rather than the quality aspect.</t>
+  </si>
+  <si>
+    <t>[WHF12]</t>
+  </si>
+  <si>
+    <t>Wiess, Rotem, Holzmann, Vered, Frank, Moti</t>
+  </si>
+  <si>
+    <t>The Factors Affecting the Quality of the Software Requirements Specifications in Technological Projects: A report on a Research in Progress</t>
+  </si>
+  <si>
+    <t>10.3182/20120523-3-RO-2023.00407</t>
+  </si>
+  <si>
+    <t>This paper aims at identifying and investigating the quality of the Software Requirement Specifications (SRS) document and the relationships between the technical, organizational, and interpersonal factors. Requirements are the foundation of the project, and they form the basis for design, manufacture, test and operation. The SRS details both functional and technical system requirements that are used for the design process. In this research we are going to study the quality of SRS documents qualitatively and to assess the impact of the various factors on this quality in a quantitative method.</t>
+  </si>
+  <si>
+    <t>[AMG21]</t>
+  </si>
+  <si>
+    <t>Adanza Dopazo, Daniel, Moreno Pelayo, Valentín, Génova Fuster, Gonzalo</t>
+  </si>
+  <si>
+    <t>An automatic methodology for the quality enhancement of requirements using genetic algorithms</t>
+  </si>
+  <si>
+    <t>10.1016/j.infsof.2021.106696</t>
+  </si>
+  <si>
+    <t>Context
+The set of requirements for any project offers common ground where the client and the company agree on the most important features and limitations of the project. Having a set of requirements of the highest possible quality is of enormous importance; benefits include improving project quality, understanding client needs better, reducing costs, and predicting project schedules and results with greater accuracy.
+Objective
+This paper's primary goal is to create a methodology that can provide effective and efficient solutions for modifying poor requirements integrated into a full-fledged system, extracting the main features of each requirement, assessing their quality at an expert level, and, finally, enhancing the quality of the requirements.
+Method
+In the first step, a machine learning algorithm is implemented to classify requirements based on quality and identify those that are the likeliest to be problematic. In the second step, the genetic algorithm generated solutions to enhance the quality of the requirements identified as inferior.
+Results
+The results of the genetic algorithm are compared with the theoretically optimal solution. The paper demonstrates the significant flexibility of genetic algorithms, which create a wide variety of solutions and can adapt to any type of classifier. From the initial dataset of requirements, the genetic algorithm finds the optimal solution in 85% of cases after 10 iterations and achieves 59.8% success after only one iteration.
+Conclusions
+Genetic algorithms are promising tools for requirements engineering by delivering benefits such as saving costs, automating tasks, and providing more solid and efficient planning in any project through the generation of new solutions.</t>
+  </si>
+  <si>
+    <t>[DCFW14]</t>
+  </si>
+  <si>
+    <t>Dargan, John L., Campos-Nanez, Enrique, Fomin, Pavel, Wasek, James</t>
+  </si>
+  <si>
+    <t>Predicting Systems Performance through Requirements Quality Attributes Model</t>
+  </si>
+  <si>
+    <t>10.1016/j.procs.2014.03.043</t>
+  </si>
+  <si>
+    <t>Poor requirements definition can adversely impact system cost and performance for government acquisition programs. This can be mitigated by ensuring requirements statements are written in a clear and unambiguous manner that reflects high linguistic quality. This paper introduces a statistical model that uses requirements quality factors to predict system operational performance. This model is created using empirical data from current major acquisition programs within the federal government. Operational Requirements Documents and Operational Test Reports are the data sources, respectively, for the system requirements statements and the accompanying operational test results used for model development. A commercial-off-the-shelf requirements quality analysis tool is used to determine the linguistic quality metrics for the requirements statements. Following model construction, cross validation of the data is employed to confirm the predictive value of the model. In all, the results establish that requirements quality is indeed a predictive factor for end system operational performance; and the resulting statistical model can inform requirements decisions based on likelihood of successful operational performance.</t>
+  </si>
+  <si>
+    <t>[FMWE17]</t>
+  </si>
+  <si>
+    <t>Femmer, Henning, Méndez Fernández, Daniel, Wagner, Stefan, Eder, Sebastian</t>
+  </si>
+  <si>
+    <t>Rapid quality assurance with Requirements Smells</t>
+  </si>
+  <si>
+    <t>10.1016/j.jss.2016.02.047</t>
+  </si>
+  <si>
+    <t>Bad requirements quality can cause expensive consequences during the software development lifecycle, especially if iterations are long and feedback comes late. We aim at a light-weight static requirements analysis approach that allows for rapid checks immediately when requirements are written down. We transfer the concept of code smells to requirements engineering as Requirements Smells. To evaluate the benefits and limitations, we define Requirements Smells, realize our concepts for a smell detection in a prototype called Smella and apply Smella in a series of cases provided by three industrial and a university context. The automatic detection yields an average precision of 59% at an average recall of 82% with high variation. The evaluation in practical environments indicates benefits such as an increase of the awareness of quality defects. Yet, some smells were not clearly distinguishable. Lightweight smell detection can uncover many practically relevant requirements defects in a reasonably precise way. Although some smells need to be defined more clearly, smell detection provides a helpful means to support quality assurance in requirements engineering, for instance, as a supplement to reviews.</t>
+  </si>
+  <si>
+    <t>[PDL+15]</t>
+  </si>
+  <si>
+    <t>Parra, Eugenio, Dimou, Christos, Llorens, Juan, Moreno, Valentín, Fraga, Anabel</t>
+  </si>
+  <si>
+    <t>A methodology for the classification of quality of requirements using machine learning techniques</t>
+  </si>
+  <si>
+    <t>10.1016/j.infsof.2015.07.006</t>
+  </si>
+  <si>
+    <t>Context
+One of the most important factors in the development of a software project is the quality of their requirements. Erroneous requirements, if not detected early, may cause many serious problems, such as substantial additional costs, failure to meet the expected objectives and delays in delivery dates. For these reasons, great effort must be devoted in requirements engineering to ensure that the project’s requirements results are of high quality. One of the aims of this discipline is the automatic processing of requirements for assessing their quality; this aim, however, results in a complex task because the quality of requirements depends mostly on the interpretation of experts and the necessities and demands of the project at hand.
+Objective
+The objective of this paper is to assess the quality of requirements automatically, emulating the assessment that a quality expert of a project would assess.
+Method
+The proposed methodology is based on the idea of learning based on standard metrics that represent the characteristics that an expert takes into consideration when deciding on the good or bad quality of requirements. Using machine learning techniques, a classifier is trained with requirements earlier classified by the expert, which then is used for classifying newly provided requirements.
+Results
+We present two approaches to represent the methodology with two situations of the problem in function of the requirement corpus learning balancing, obtaining different results in the accuracy and the efficiency in order to evaluate both representations. The paper demonstrates the reliability of the methodology by presenting a case study with requirements provided by the Requirements Working Group of the INCOSE organization.
+Conclusions
+A methodology that evaluates the quality of requirements written in natural language is presented in order to emulate the quality that the expert would provide for new requirements, with 86.1 of average in the accuracy.</t>
+  </si>
+  <si>
+    <t>[STYA14]</t>
+  </si>
+  <si>
+    <t>Satio, Shinobu, Takeuchi, Mutsuki, Yamada, Setsuo, Aoyama, Mikio</t>
+  </si>
+  <si>
+    <t>RISDM: A requirements inspection systems design methodology: Perspective-based design of the pragmatic quality model and question set to SRS</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2014.6912264</t>
+  </si>
+  <si>
+    <t>The quality of the SRS (Software Requirements Specification) is the key to the success of software development. The inspection for the verification and validation of SRS are widely practiced, however, the techniques of inspection are rather ad hoc, and largely depend on the knowledge and skill of the people. This article proposes RISDM (Requirements Inspection Systems Design Methodology) to design the RIS (Requirements Inspection System) to be conducted by a thirdparty inspection team. The RISDM includes a meta-model and design process of RIS, PQM (Pragmatic Quality Model) of SRS, and a technique to generate inspection question set based on the PQM and PBR (Perspective-Based Reading). We have been applying the RIS designed by the proposed RISDM to more than 140 projects of a wide variety of software systems in NTT DATA for five years. By analyzing the statistics from the experience, we discovered some key quality characteristics of SRS reveal strong correlation to the project cost and level of quality to be used for evaluating the maturity of the SRS and predicting the risk.</t>
+  </si>
+  <si>
+    <t>[AAE15]</t>
+  </si>
+  <si>
+    <t>Anuar, Umairah, Ahmad, Sabrina, Emran, Nurul A.</t>
+  </si>
+  <si>
+    <t>A simplified systematic literature review: Improving Software Requirements Specification quality with boilerplates</t>
+  </si>
+  <si>
+    <t>10.1109/MySEC.2015.7475203</t>
+  </si>
+  <si>
+    <t>The quality of Software Requirements Specification (SRS) is crucial in order to ensure successful project completion. SRS of poor quality usually lacks of quality attributes such as completeness, accuracy and disambiguity. Boilerplate is a technique used to deal with problems in SRS. However, study on the coverage of boilerplate contribution especially in improving SRS quality is limited. This paper presents Systematic Literature Review (SLR) on problems in SRS and boilerplates. The review that covers literature from 1997 to 2015 reveals that 1) poor quality SRS is the most popular problem among the other five SRS problems discovered, 2) Boilerplate technique has been applied to cope with SRS of poor quality, where disambiguity has been found the most popular quality attribute.</t>
+  </si>
+  <si>
+    <t>[TP15]</t>
+  </si>
+  <si>
+    <t>Thitisathienkul, Patra, Prompoon, Nakornthip</t>
+  </si>
+  <si>
+    <t>Quality Assessment Method for Software Requirements Specifications Based on Document Characteristics and Its Structure</t>
+  </si>
+  <si>
+    <t>10.1109/TSA.2015.19</t>
+  </si>
+  <si>
+    <t>The Software Requirements Specifications document (SRS) is used to collect the user requirements, which is used as an input for development process, and as a baseline for verifying the correctness of the software product occurring at each step throughout the software development process. It has been found that many organizations cannot deliver software products that satisfy the actual requirements of the customers, due to defects that frequently occur in the SRS, especially the use of ambiguous natural language in the requirements specifications and the inappropriate document structure, which negatively affects the software quality. Therefore, this research presents a method for objectively assessing the quality of the SRS for use of natural language in requirements specification, document structure, and overall document quality, by directly considering three characteristics of the document: unambiguous, verifiable and modifiable, to indicate the quality of the document and defects that appear during the software requirements engineering step. The process assessment model is applied as a framework for assessing the quality of the SRS, and the measurement process model and measurement information model are used as approaches for proposing a method for SRS quality assessment and defining the metric, respectively, using Pearson's correlation coefficient as the criterion for verifying the validity of the results obtained from assessing the SRS using the proposed method, indicating that the results obtained from the quality assessment reflect the quality of the SRS, as well as the apparent defects.</t>
+  </si>
+  <si>
+    <t>[BSD13]</t>
+  </si>
+  <si>
+    <t>Banerjee, Shreya, Sarkar, Anirban, Debnath, Narayan C.</t>
+  </si>
+  <si>
+    <t>Quality evaluation of requirement engineering framework: Business object based approach</t>
+  </si>
+  <si>
+    <t>10.1109/ComManTel.2013.6482423</t>
+  </si>
+  <si>
+    <t>Design and development of efficient software product depends on the quality of the requirements engineering phase. Hence it is required to devising a general purpose quality evaluation framework for that phase. In this paper, a theoretical approach of quality evaluation framework has been proposed for generic requirement engineering process. For this reason a set of quality metrics have been proposed along with their illustrations specifically based on Business Object based Requirement Engineering framework [12]. However, the proposed metrics are applicable to any other frameworks also. Finally future research issues have been specified.</t>
+  </si>
+  <si>
+    <t>[FUG17]</t>
+  </si>
+  <si>
+    <t>Femmer, Henning, Unterkalmsteiner, Michael, Gorschek, Tony</t>
+  </si>
+  <si>
+    <t>Which Requirements Artifact Quality Defects are Automatically Detectable? A Case Study</t>
+  </si>
+  <si>
+    <t>10.1109/REW.2017.18</t>
+  </si>
+  <si>
+    <t>[Context:] The quality of requirements engineering artifacts, e.g. requirements specifications, is acknowledged to be an important success factor for projects. Therefore, many companies spend significant amounts of money to control the quality of their RE artifacts. To reduce spending and improve the RE artifact quality, methods were proposed that combine manual quality control, i.e. reviews, with automated approaches. [Problem:] So far, we have seen various approaches to automatically detect certain aspects in RE artifacts. However, we still lack an overview what can and cannot be automatically detected. [Approach:] Starting from an industry guideline for RE artifacts, we classify 166 existing rules for RE artifacts along various categories to discuss the share and the characteristics of those rules that can be automated. For those rules, that cannot be automated, we discuss the main reasons. [Contribution:] We estimate that 53% of the 166 rules can be checked automatically either perfectly or with a good heuristic. Most rules need only simple techniques for checking. The main reason why some rules resist automation is due to imprecise definition. [Impact:] By giving first estimates and analyses of automatically detectable and not automatically detectable rule violations, we aim to provide an overview of the potential of automated methods in requirements quality control.</t>
+  </si>
+  <si>
+    <t>[KKG18]</t>
+  </si>
+  <si>
+    <t>Kocerka, Jerzy, Kreslak, Michal, Galuszka, Adam</t>
+  </si>
+  <si>
+    <t>Analysing Quality of Textual Requirements Using Natural Language Processing: A Literature Review</t>
+  </si>
+  <si>
+    <t>10.1109/MMAR.2018.8486143</t>
+  </si>
+  <si>
+    <t>Requirements engineering plays an important role in quality assurance, which is especially important for complex, embedded, safety-related systems. Such systems are often subject to additional regulations regarding functional safety such as ISO 26262 norm for road vehicles or EN 50128 for railway industry. Verifying quality of the requirements is a first step both for validation and verification of the system under test. This paper presents a review of the existing methods of automatic detection of the ambiguity and automatic assessment of the requirements quality together with the possible, future fields of research.</t>
+  </si>
+  <si>
+    <t>[SSB21]</t>
+  </si>
+  <si>
+    <t>Singh, Shilpi, Saikia, L. P., Baruah, Sunandan</t>
+  </si>
+  <si>
+    <t>A study on Quality Assessment of Requirement Engineering Document using Text Classification Technique</t>
+  </si>
+  <si>
+    <t>10.1109/ICESC51422.2021.9532736</t>
+  </si>
+  <si>
+    <t>The Software Requirement Engineering document is the most important artifacts of the software development life cycle model. In majority of software systems, the Requirements Engineering (RE) Document or SRS (Software Requirement Specification) document has been written in natural language English that are prone to ambiguity. The ambiguous Requirement Engineering document may lead to disastrous results thereby hampering the entire development process and ending up compromising on the quality of a system. The success of any software product depends upon the quality of the Requirement Engineering document. The main reason for software crisis in software Industry is the Ambiguous Requirement Engineering Document. This paper discusses about the types of ambiguity, approaches to handle and providing a level of automatic assistance in order to detect ambiguity in the Requirement Engineering Document. The study also confirms the use of text classification technique to classify a text as “ambiguous” or “Unambiguous” at the syntax level. The key objectives of the work include understanding the presence of ambiguity in any Requirement Engineering document with the help of Machine Learning Techniques and finally minimizing or reducing it.</t>
+  </si>
+  <si>
+    <t>[ISO/IEC/25010:2011]</t>
+  </si>
+  <si>
+    <t>ISO/IEC</t>
+  </si>
+  <si>
+    <t>Systems and software engineering - Systems and software Quality Requirements and Evaluation (SQuaRE) - System and software quality models</t>
+  </si>
+  <si>
+    <t>[KB08]</t>
+  </si>
+  <si>
+    <t>Knauss, Eric, Boustani, Christian El</t>
+  </si>
+  <si>
+    <t>Assessing the Quality of Software Requirements Specifications</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2008.29</t>
+  </si>
+  <si>
+    <t>Software requirements specifications (SRS) are hard to compare due to the uniqueness of the projects they were created in. In practice this means that it is not possible to objectively determine if a projects SRS fails to reach a certain quality threshold. Therefore, a commonly agreed-on quality model is needed. Additionally, a large set of empirical data is needed to establish a correlation between project success and quality levels. As there is no such quality model, we had to define our own based on the goal-question-metric (GQM) method. Based on this we analyzed more than 40 software projects (student projects in undergraduate software engineering classes), in order to contribute to the empirical part. This paper contributes in three areas: Firstly, we outline our GQM plan and our set of metrics. They were derived from widespread literature, and hence could lead to a discussion of how to measure requirements quality. Practitioners and researchers can profit from our experience, when measuring the quality of their requirements. Secondly, we present our findings. We hope that others find these valuable when comparing them to their own results. Finally,we show that the results of our quality assessment correlate to project success. Thus, we give an empirical indication for the correlation of requirements engineering and project success.</t>
+  </si>
+  <si>
+    <t>[KBF09]</t>
+  </si>
+  <si>
+    <t>Knauss, Eric, Boustani, Christian El, Flohr, Thomas</t>
+  </si>
+  <si>
+    <t>Investigating the Impact of Software Requirements Specification Quality on Project Success</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-642-02152-7_4</t>
+  </si>
+  <si>
+    <t>Different Software Requirements Specifications (SRS) are hard to compare due to the uniqueness of the projects they were created in. Without such comparison, it is difficult to objectively determine if a project’s SRS is good enough to serve as a foundation for project success. We define a quality model for SRS and derive required metrics using the Goal-Question-Metric approach. These metrics were applied in roughly 40 student’s software projects. Based on this we find a quality threshold for project success. This paper contributes in three areas: Firstly, we present our quality model. It was derived from literature, and contributes to the discussion of how to objectively measure requirements quality. Secondly, we share our evaluation approach and our experiences measuring SRS quality. Others could profit, when planning to measure requirements quality. Finally, we present our findings and compare them to related studies in literature.</t>
+  </si>
+  <si>
+    <t>[SM17]</t>
+  </si>
+  <si>
+    <t>Stephen, E., Mit, E.</t>
+  </si>
+  <si>
+    <t>Framework for Measuring the Quality of Software Specification</t>
+  </si>
+  <si>
+    <t>This paper proposes a platform for measuring the quality of structure and functional requirement in software requirement specification (SRS). The SRS contains information needed to ensure the quality of the software. Measurement will be proposed based on four quality properties namely preciseness, consistency, completeness and correctness. The completeness properties will be used to measure the SRS which is based on IEEE 830 as a minimal standard. Meanwhile, the consistency, correctness and preciseness properties are proposed to be used for measuring the functional requirement in the document. The measurement of the overall quality of the SRS will be calculated based on all quality properties. The rules and formula for computing the SRS quality are embedded in proposed framework., which is a basis for platform for assessing the software quality.</t>
+  </si>
+  <si>
+    <t>[CL14]</t>
+  </si>
+  <si>
+    <t>Carlson, Nathan, Laplante, Phil</t>
+  </si>
+  <si>
+    <t>The NASA automated requirements measurement tool: a reconstruction</t>
+  </si>
+  <si>
+    <t>10.1007/s11334-013-0225-8</t>
+  </si>
+  <si>
+    <t>In the late 1990s the National Aeronautics and Space Administration (NASA) Software Assurance Technology Center (SATC) developed a tool to automatically analyze a requirements document and produce a detailed quality report. The report was based on statistical analysis of word frequencies at various structural levels of the document. The Automated Requirements Measurement (ARM) tool was further enhanced to include additional functionality such as custom definitions of quality indicators inputs for document analysis. By 2011 work on the ARM tool was discontinued. This paper describes the reverse-engineering and reproduction of the functionality of ARM. Recreating the functionality of this tool yielded valuable insight into certain quality metrics and provides a benchmark tool for future research. In addition to recreating and working with the ARM tool, this paper explores both existing and potential definitions of quality metrics in requirements specifications. Automated requirements analysis is a convergence of various fields of research, including text mining, quality analysis, and natural language processing. Informed by tangential areas of research in document understanding and data mining, recommendations are made for future areas of research and development in automated requirements analysis.</t>
+  </si>
+  <si>
+    <t>[NZM17]</t>
+  </si>
+  <si>
+    <t>Nordin, Azlin, Zaidi, Nurul Husna Ahmad, Mazlan, Noor Asheera</t>
+  </si>
+  <si>
+    <t>Measuring Software Requirements Specification Quality</t>
+  </si>
+  <si>
+    <t>The quality of a Software Requirements Specification (SRS) is measured in terms of quality properties such as completeness, conciseness, consistency and understandability. In general, evaluation of the SRS quality is done manually during review sessions. The evaluation process, however, is hugely dependent on the expertise of human experts i.e. the reviewers. In fact, the judgment of the human experts could also be inconsistent due to various factors including experience, knowledge and domain. The objectives of this study are to (1) identify feasible rules to measure SRS quality; and (2) help requirements engineer to improve their SRS quality. In this study, we analyzed SRS quality properties from the literature and identified quality factors that are feasible to be automated. From here, we identified two types of properties that are (1) requirements sentence quality (RSQ) and (2) requirements document quality (RDQ). For each of the type, its relevant quality indicators were identified. From here, rules on how to identify the quality indicators were further investigated and documented. As a case study, we implemented SRS QualityChecker tool as a proof-of-concept for demonstrating how the rules were implemented to measure the SRS quality.</t>
+  </si>
+  <si>
+    <t>[Mat04]</t>
+  </si>
+  <si>
+    <t>Matulevicius, Raimundas</t>
+  </si>
+  <si>
+    <t>How Requirements Specification Quality Depends on Tools: A Case Study</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-540-25975-6_26</t>
+  </si>
+  <si>
+    <t>Requirements specification is a complex activity, where the automated support by the requirements engineering (RE) tools plays an important role. However, the surveys report that the mainstream practice relies on office and modelling tools rather than the targeted RE-tools. This work performs a case study, where two requirements specification processes are analyzed. In order to prepare a requirements document, standard office and modelling tools are used in the first case. In the second case, requirements specification is executed by the means of the RE-tools. Finally, the quality of both requirements documents is compared and evaluated by their qualitative properties. The results indicate that the targeted RE-tools provide better support for the RE process than the standard office and modelling facilities. The requirements document prepared using the targeted RE-tools, is substantially of better quality. The work findings suggest the RE-tool features which could be improved for the qualitative automated support of the RE process.</t>
+  </si>
+  <si>
+    <t>[ISO/IEC9126:2001]</t>
+  </si>
+  <si>
+    <t>Software engineering — Product quality — Part 1: Quality model (9126)</t>
+  </si>
+  <si>
+    <t>[RR21]</t>
+  </si>
+  <si>
+    <t>Ramesh, M. R. Raja, Reddy, Ch. Satyananda</t>
+  </si>
+  <si>
+    <t>Metrics for software requirements specification quality quantification</t>
+  </si>
+  <si>
+    <t>10.1016/j.compeleceng.2021.107445</t>
+  </si>
+  <si>
+    <t>The initial and crucial phase of the automation and software development is identifying requirements and documenting them in an appropriate format that denotes software requirement specification (SRS). The quality and productivity at different phases of the software development depend on requirements specification. The quality of the end product of software development is proportionate to the quality of SRS. Hence, estimating the quality of the SRS is essential. Though the numerous metrics have been defined in contemporary research, the IEEE standard metrics are considered authentic to scale SRS quality. This manuscript endeavored to redefine the IEEE standard metrics’ measuring approaches to improvise SRS quality assessment. The experimental study exhibiting the significance and robustness of the proposed approach that compared to the contemporary contributions of the recent literature</t>
+  </si>
+  <si>
+    <t>[NNN16]</t>
+  </si>
+  <si>
+    <t>EC2: Uses already considered quality model</t>
+  </si>
+  <si>
+    <t>EC1: Quality model not main contribution</t>
+  </si>
+  <si>
+    <t>EC3: Focus on quality measurement</t>
+  </si>
+  <si>
+    <t>EC4: No access</t>
+  </si>
+  <si>
+    <t>EC5: Method for quality model definition</t>
+  </si>
+  <si>
+    <r>
+      <t>x (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>focus on product quality, not SRS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Search-Term</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>#Results</t>
+  </si>
+  <si>
+    <t>ACM DL</t>
+  </si>
+  <si>
+    <t>Requirements Specification Quality Model</t>
+  </si>
+  <si>
+    <t>Requirements Specification Quality</t>
+  </si>
+  <si>
+    <t>[HB19], [NNN16]</t>
+  </si>
+  <si>
+    <t>Requirements Engineering Quality Model</t>
+  </si>
+  <si>
+    <t>Requirements Engineering Quality</t>
+  </si>
+  <si>
+    <t>[FMF15], [PVA18], [WM17]</t>
+  </si>
+  <si>
+    <t>ScienceDirect</t>
+  </si>
+  <si>
+    <t>[RR21], [MVSG18], [WHF12]</t>
+  </si>
+  <si>
+    <t>[AMG21], [DCFW14], [FFE17], [PDL+15]</t>
+  </si>
+  <si>
+    <t>IEEE Xplore</t>
+  </si>
+  <si>
+    <t>[STH+13], [STYA14]</t>
+  </si>
+  <si>
+    <t>[AAE15], [TP15], [TA15]</t>
+  </si>
+  <si>
+    <t>[BSD13], [FUG17], [KKG18], [SSB21]</t>
+  </si>
+  <si>
+    <t>Sources for fulltext review</t>
+  </si>
+  <si>
+    <t>[DOJ+93], [ISO/IEC/IEEE29148:2018]</t>
+  </si>
+  <si>
+    <t>[ISO/IEC/IEEE29148:2018], [HZ18]</t>
+  </si>
+  <si>
+    <t>[DOJ+93], STH+13]</t>
+  </si>
+  <si>
+    <t>[KB03]</t>
+  </si>
+  <si>
+    <t>[VVA+15]</t>
+  </si>
+  <si>
+    <t>[FFEW17]</t>
+  </si>
+  <si>
+    <t>[DOJ+93], [ISO/IEC/IEEE29148:2018], [BBG+06]</t>
+  </si>
+  <si>
+    <t>[FV19]</t>
+  </si>
+  <si>
+    <t>[Gli20]</t>
+  </si>
+  <si>
+    <t>[FFWE17], [KBF09], [HZ18], [CL14], [STH+13], [TP15], [TA15], [NZM17], [Mat04], [Bel12]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +772,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +836,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -340,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -361,6 +912,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -675,23 +1236,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2D674-3A28-44D2-9346-81CA896601A1}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="103.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="112.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="112.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,248 +1275,808 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>2018</v>
+        <v>118</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2015</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>1993</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>1993</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>2006</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>1993</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="300" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>2019</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>2013</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>2015</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -969,139 +2090,142 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1109,38 +2233,875 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B8EE3F-B4CB-4CF2-9D57-5F1508EBF978}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
+    <sortCondition ref="A1:A43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9E061-F5A1-4B1C-B08F-EE4779A5AF32}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B6C3F4-4DE6-45EB-BD78-35702F411A0E}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20221108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20221108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20221108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20221108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20221108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20221108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20221108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20221108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>66</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>67</v>
+      <c r="F9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20221109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20221109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20221109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20221109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20221109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20221109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20221109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20221109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20221110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>20221110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20221110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20221110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20221110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20221110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20221110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20221110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>248</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1149,25 +3110,148 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3C662-45E8-4278-B92B-1D363639AC66}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9E061-F5A1-4B1C-B08F-EE4779A5AF32}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E3C662-45E8-4278-B92B-1D363639AC66}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/replication_package/1_Quality_Model_Snowballing.xlsx
+++ b/replication_package/1_Quality_Model_Snowballing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/Req Quality Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/AQM-Interaction/replication_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{68A6B8F7-620A-4123-9E9F-CEF49EACEDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4F2052-E626-4775-8D43-BAEE27A20EDD}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{68A6B8F7-620A-4123-9E9F-CEF49EACEDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3DF480-9A94-4CFB-974A-0CA54161471E}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="615" windowWidth="28800" windowHeight="15375" firstSheet="1" activeTab="5" xr2:uid="{3DA611D9-12F5-44CC-8CC3-125313F44466}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3DA611D9-12F5-44CC-8CC3-125313F44466}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>We have been involved in a number of large-scale software development projects, which might lead to loss of millions of dollars if failed. The quality of SRS (Software Requirements Specification) is the key to success of the software development. Review and inspection are common practices for the verification and validation of SRS. However, verification techniques used in projects might be characterized as ad hoc. In this article, we propose requirements clinic, a third party inspection methodology for improving the quality of the SRS. In order to systematically inspect a SRS, we developed a perspective-based inspection methodology based on PQM (Pragmatic Quality Model) of SRS. PQM is derived from IEEE Std. 830 from the perspective of pragmatic quality. To inspect a SRS according to PQM, we identified 198 inspection points, which lead to a quality score between 0 and 100. The requirements clinic advises to the requirements engineering team by a comprehensive quality inspection report including quality score, benchmark and SRS patterns for improvement. Since 2010, we have been practicing the methodology to a variety of development projects, and revealed an average of 10.6 ROI in 12 projects. We also discuss the feasibility of the methodology and lessons learned from the practices.</t>
   </si>
   <si>
-    <t>Takoshima, Akiyuki, and Mikio Aoyama</t>
-  </si>
-  <si>
     <t>Assessing the Quality of Software Requirements Specifications for Automotive Software Systems</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Handbook for the CPRE Foundation Level According to 	the IREB Standard</t>
-  </si>
-  <si>
-    <t>Industry</t>
   </si>
   <si>
     <t>Hassani, Rachida, and Younès El Bouzekri El Idrissi</t>
@@ -624,16 +618,10 @@
     <t>EC2: Uses already considered quality model</t>
   </si>
   <si>
-    <t>EC1: Quality model not main contribution</t>
-  </si>
-  <si>
     <t>EC3: Focus on quality measurement</t>
   </si>
   <si>
     <t>EC4: No access</t>
-  </si>
-  <si>
-    <t>EC5: Method for quality model definition</t>
   </si>
   <si>
     <r>
@@ -750,6 +738,18 @@
   </si>
   <si>
     <t>[FFWE17], [KBF09], [HZ18], [CL14], [STH+13], [TP15], [TA15], [NZM17], [Mat04], [Bel12]</t>
+  </si>
+  <si>
+    <t>Takoshima, Akiyuki, and, Aoyama, Mikio</t>
+  </si>
+  <si>
+    <t>Handbook</t>
+  </si>
+  <si>
+    <t>EC1: Quality model is not the main contribution</t>
+  </si>
+  <si>
+    <t>EC5: Method for quality model definition / meta-model</t>
   </si>
 </sst>
 </file>
@@ -1238,21 +1238,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2D674-3A28-44D2-9346-81CA896601A1}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="103.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="112.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="112.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,73 +1275,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3">
         <v>2015</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>2021</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2006</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1364,399 +1364,399 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3">
         <v>2013</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3">
         <v>2014</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3">
         <v>2014</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1993</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C10">
         <v>2015</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3">
         <v>2017</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="3">
         <v>2017</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1993</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2019</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3">
         <v>2011</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>2018</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="3">
         <v>2001</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3">
         <v>2008</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C21" s="3">
         <v>2009</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3">
         <v>2018</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3">
         <v>2004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1776,166 +1776,166 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>2016</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3">
         <v>2017</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3">
         <v>2015</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>2018</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="3">
         <v>2021</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3">
         <v>2017</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3">
         <v>2021</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1958,119 +1958,119 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3">
         <v>2014</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="C34">
         <v>2015</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="3">
         <v>2015</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3">
         <v>2012</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>2017</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2087,139 +2087,139 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2236,397 +2236,397 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="16"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="9"/>
     </row>
   </sheetData>
@@ -2642,45 +2642,45 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="F1" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20221108</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2689,15 +2689,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20221108</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2706,15 +2706,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20221108</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2723,15 +2723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20221108</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2740,18 +2740,18 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20221108</v>
       </c>
       <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
         <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -2760,15 +2760,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20221108</v>
       </c>
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
         <v>197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>201</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2777,15 +2777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20221108</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -2794,15 +2794,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20221108</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -2811,18 +2811,18 @@
         <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20221109</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -2831,15 +2831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20221109</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2848,15 +2848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20221109</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -2865,15 +2865,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20221109</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -2882,18 +2882,18 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20221109</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -2905,15 +2905,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20221109</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2922,15 +2922,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20221109</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -2939,15 +2939,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20221109</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2956,18 +2956,18 @@
         <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20221110</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -2976,15 +2976,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20221110</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -2993,18 +2993,18 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20221110</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3013,15 +3013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20221110</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -3030,18 +3030,18 @@
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20221110</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3050,15 +3050,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20221110</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -3067,15 +3067,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20221110</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -3084,15 +3084,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20221110</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -3101,7 +3101,7 @@
         <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3117,90 +3117,90 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
         <v>216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3213,24 +3213,24 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="76.44140625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3238,20 +3238,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
